--- a/StructureDefinition-svc-provenance-paper.xlsx
+++ b/StructureDefinition-svc-provenance-paper.xlsx
@@ -746,7 +746,7 @@
     <t>Provenance_Agent</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-pha-organization)
+    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-organization)
 </t>
   </si>
   <si>
@@ -847,7 +847,7 @@
     <t>Provenance_Entity</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-pha-composition)
+    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-composition)
 </t>
   </si>
   <si>
@@ -857,7 +857,7 @@
     <t>derived</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-pha-composition-new)
+    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-composition-new)
 </t>
   </si>
   <si>
